--- a/Original Excel Files/JD-JW.xlsx
+++ b/Original Excel Files/JD-JW.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08618576-8864-4F38-B13E-4996852461B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="29520" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,7 +370,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -446,6 +447,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,6 +457,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -503,7 +508,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,9 +541,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -571,6 +593,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -746,128 +785,143 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:H68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1994</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2008</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
+      <c r="A5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1994</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2008</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" t="s">
-        <v>85</v>
+      <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1984</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1973</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>56</v>
+      <c r="A8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2004</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>71</v>
+        <v>37</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1945</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
+      <c r="A10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1984</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -884,345 +938,450 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1987</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>59</v>
+      <c r="A15" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1961</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>62</v>
+        <v>43</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1998</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" t="s">
-        <v>99</v>
+      <c r="A17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1992</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1994</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" t="s">
-        <v>65</v>
+      <c r="A19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1967</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1973</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1987</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1961</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="5">
+      <c r="F26" s="8">
         <v>1988</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="G26" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="5">
+      <c r="F27" s="8">
         <v>2012</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="G27" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="8">
+        <v>2004</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="A29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="8">
         <v>1984</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="6"/>
+      <c r="G30" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1945</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>38</v>
+      <c r="A31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1999</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="G33" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="3"/>
+      <c r="A34" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1984</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>41</v>
+        <v>79</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1987</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="5">
-        <v>1998</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" t="s">
-        <v>94</v>
-      </c>
-      <c r="G37" t="s">
-        <v>95</v>
-      </c>
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="3"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="3"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="5">
-        <v>1992</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1994</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="5">
-        <v>1967</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="6"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -1246,157 +1405,108 @@
       <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="5">
-        <v>1984</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="6"/>
       <c r="D50" s="8"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="6"/>
       <c r="D51" s="8"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="6"/>
       <c r="D52" s="8"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="6"/>
       <c r="D53" s="8"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>22</v>
-      </c>
-      <c r="B61" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" t="s">
-        <v>24</v>
-      </c>
-      <c r="F61" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D65" s="5">
-        <v>1999</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>106</v>
-      </c>
-      <c r="B67" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" t="s">
-        <v>108</v>
-      </c>
-      <c r="F67" t="s">
-        <v>109</v>
-      </c>
-      <c r="G67" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>111</v>
-      </c>
-      <c r="B68" t="s">
-        <v>112</v>
-      </c>
-      <c r="C68" t="s">
-        <v>113</v>
-      </c>
-      <c r="F68" t="s">
-        <v>114</v>
-      </c>
-      <c r="G68" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D69" s="5">
-        <v>1987</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>80</v>
-      </c>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G69">
+    <sortCondition ref="A1:A69"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1408,7 +1518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
